--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="356">
   <si>
     <t>Path</t>
   </si>
@@ -303,33 +303,93 @@
     <t>Group.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-group-address}
+</t>
+  </si>
+  <si>
+    <t>Group Address</t>
+  </si>
+  <si>
+    <t>Specifies the Group's address. Must contain at least the Location reference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-group-poverty-status}
+</t>
+  </si>
+  <si>
+    <t>Group Poverty Status</t>
+  </si>
+  <si>
+    <t>Specifies the Group's poverty status.</t>
+  </si>
+  <si>
+    <t>groupType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-group-type}
+</t>
+  </si>
+  <si>
+    <t>Group Type</t>
+  </si>
+  <si>
+    <t>Specifies the Group's type.</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-group-confirmation}
+</t>
+  </si>
+  <si>
+    <t>Group Confirmation</t>
+  </si>
+  <si>
+    <t>Specifies the Group's confirmation number and type.</t>
+  </si>
+  <si>
+    <t>Group.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Group.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -337,6 +397,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -390,17 +453,13 @@
     <t>Group.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1207,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK92"/>
+  <dimension ref="A1:AK96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1217,7 +1276,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2107,11 +2166,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>40</v>
@@ -2126,17 +2185,15 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>96</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>38</v>
@@ -2173,16 +2230,14 @@
         <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>97</v>
@@ -2200,51 +2255,49 @@
         <v>98</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N10" t="s" s="2">
         <v>102</v>
       </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>38</v>
       </c>
@@ -2292,7 +2345,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>39</v>
@@ -2301,13 +2354,13 @@
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2315,27 +2368,29 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>105</v>
@@ -2347,9 +2402,7 @@
         <v>107</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>38</v>
       </c>
@@ -2385,17 +2438,19 @@
         <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -2404,23 +2459,25 @@
         <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>38</v>
       </c>
@@ -2441,13 +2498,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2498,22 +2555,22 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2521,18 +2578,20 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="C13" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>38</v>
@@ -2544,17 +2603,15 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>38</v>
@@ -2591,19 +2648,19 @@
         <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2612,13 +2669,13 @@
         <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2626,18 +2683,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>38</v>
@@ -2646,22 +2703,22 @@
         <v>48</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>38</v>
@@ -2686,13 +2743,13 @@
         <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>38</v>
@@ -2710,22 +2767,22 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2733,7 +2790,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2741,13 +2798,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2756,19 +2813,17 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>38</v>
@@ -2793,37 +2848,35 @@
         <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>38</v>
@@ -2832,15 +2885,15 @@
         <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2866,10 +2919,10 @@
         <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2920,7 +2973,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2935,7 +2988,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2943,11 +2996,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2966,16 +3019,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3013,19 +3066,19 @@
         <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -3040,7 +3093,7 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3048,7 +3101,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3059,31 +3112,31 @@
         <v>39</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>38</v>
@@ -3108,13 +3161,13 @@
         <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>38</v>
@@ -3132,13 +3185,13 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>38</v>
@@ -3147,7 +3200,7 @@
         <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -3155,7 +3208,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3163,7 +3216,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>47</v>
@@ -3175,19 +3228,23 @@
         <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>38</v>
       </c>
@@ -3211,13 +3268,13 @@
         <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>38</v>
@@ -3235,7 +3292,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3247,10 +3304,10 @@
         <v>38</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -3258,18 +3315,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>38</v>
@@ -3281,17 +3338,15 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>38</v>
@@ -3328,34 +3383,34 @@
         <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -3363,18 +3418,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>38</v>
@@ -3383,23 +3438,21 @@
         <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>38</v>
       </c>
@@ -3435,34 +3488,34 @@
         <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -3470,7 +3523,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3481,7 +3534,7 @@
         <v>39</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>38</v>
@@ -3493,18 +3546,20 @@
         <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>38</v>
       </c>
@@ -3552,13 +3607,13 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>38</v>
@@ -3567,7 +3622,7 @@
         <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3575,7 +3630,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3595,21 +3650,19 @@
         <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>38</v>
       </c>
@@ -3633,11 +3686,13 @@
         <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>38</v>
@@ -3655,7 +3710,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3667,10 +3722,10 @@
         <v>38</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3678,18 +3733,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>38</v>
@@ -3698,21 +3753,21 @@
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>38</v>
       </c>
@@ -3748,34 +3803,34 @@
         <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3783,7 +3838,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3806,19 +3861,19 @@
         <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>38</v>
@@ -3867,7 +3922,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3882,7 +3937,7 @@
         <v>59</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3890,7 +3945,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3916,17 +3971,15 @@
         <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>38</v>
       </c>
@@ -3974,7 +4027,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3989,7 +4042,7 @@
         <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3997,7 +4050,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4020,19 +4073,17 @@
         <v>48</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>38</v>
@@ -4045,7 +4096,7 @@
         <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>38</v>
@@ -4057,13 +4108,11 @@
         <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>38</v>
@@ -4081,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4096,7 +4145,7 @@
         <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -4104,7 +4153,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4130,15 +4179,15 @@
         <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>38</v>
       </c>
@@ -4150,7 +4199,7 @@
         <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>38</v>
@@ -4186,7 +4235,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4201,7 +4250,7 @@
         <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -4209,7 +4258,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4232,16 +4281,20 @@
         <v>48</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>38</v>
       </c>
@@ -4289,7 +4342,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4304,7 +4357,7 @@
         <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4312,7 +4365,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4335,18 +4388,20 @@
         <v>48</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>38</v>
       </c>
@@ -4394,7 +4449,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4409,7 +4464,7 @@
         <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4417,11 +4472,9 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>38</v>
       </c>
@@ -4442,17 +4495,19 @@
         <v>48</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>38</v>
@@ -4465,7 +4520,7 @@
         <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>38</v>
@@ -4501,13 +4556,13 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>38</v>
@@ -4516,15 +4571,15 @@
         <v>59</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4544,18 +4599,20 @@
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>38</v>
@@ -4568,7 +4625,7 @@
         <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>38</v>
@@ -4604,7 +4661,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4616,10 +4673,10 @@
         <v>38</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4627,18 +4684,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>38</v>
@@ -4647,20 +4704,18 @@
         <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>38</v>
@@ -4697,34 +4752,34 @@
         <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -4732,7 +4787,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4749,26 +4804,24 @@
         <v>38</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>38</v>
       </c>
@@ -4792,13 +4845,13 @@
         <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>38</v>
@@ -4816,7 +4869,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4831,7 +4884,7 @@
         <v>59</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -4839,9 +4892,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>38</v>
       </c>
@@ -4862,19 +4917,17 @@
         <v>48</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>38</v>
@@ -4899,13 +4952,13 @@
         <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>38</v>
@@ -4923,13 +4976,13 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>38</v>
@@ -4938,15 +4991,15 @@
         <v>59</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4972,10 +5025,10 @@
         <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5026,7 +5079,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -5041,7 +5094,7 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -5049,11 +5102,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5072,16 +5125,16 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5119,19 +5172,19 @@
         <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5146,7 +5199,7 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -5154,7 +5207,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5165,31 +5218,31 @@
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>38</v>
@@ -5214,13 +5267,13 @@
         <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>38</v>
@@ -5238,13 +5291,13 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>38</v>
@@ -5253,7 +5306,7 @@
         <v>59</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -5261,7 +5314,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5281,19 +5334,23 @@
         <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>38</v>
       </c>
@@ -5317,13 +5374,13 @@
         <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>38</v>
@@ -5341,7 +5398,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5353,10 +5410,10 @@
         <v>38</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -5364,18 +5421,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>38</v>
@@ -5387,17 +5444,15 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>38</v>
@@ -5434,34 +5489,34 @@
         <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -5469,18 +5524,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>38</v>
@@ -5489,23 +5544,21 @@
         <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>38</v>
       </c>
@@ -5541,34 +5594,34 @@
         <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -5576,7 +5629,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5587,7 +5640,7 @@
         <v>39</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>38</v>
@@ -5599,18 +5652,20 @@
         <v>48</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>38</v>
       </c>
@@ -5658,13 +5713,13 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>38</v>
@@ -5673,7 +5728,7 @@
         <v>59</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -5681,7 +5736,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5689,7 +5744,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>47</v>
@@ -5701,21 +5756,19 @@
         <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>38</v>
       </c>
@@ -5724,7 +5777,7 @@
         <v>38</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>38</v>
@@ -5763,7 +5816,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5775,10 +5828,10 @@
         <v>38</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -5786,18 +5839,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>38</v>
@@ -5806,21 +5859,21 @@
         <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>38</v>
       </c>
@@ -5856,34 +5909,34 @@
         <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -5891,7 +5944,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5914,19 +5967,19 @@
         <v>48</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>38</v>
@@ -5975,7 +6028,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -5990,7 +6043,7 @@
         <v>59</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -5998,7 +6051,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6024,17 +6077,15 @@
         <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>38</v>
       </c>
@@ -6082,7 +6133,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -6097,7 +6148,7 @@
         <v>59</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -6105,7 +6156,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6113,7 +6164,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>47</v>
@@ -6128,19 +6179,17 @@
         <v>48</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>38</v>
@@ -6150,10 +6199,10 @@
         <v>38</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>38</v>
@@ -6189,7 +6238,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6204,7 +6253,7 @@
         <v>59</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -6212,7 +6261,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6238,15 +6287,15 @@
         <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>38</v>
       </c>
@@ -6258,7 +6307,7 @@
         <v>38</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>38</v>
@@ -6294,7 +6343,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6309,7 +6358,7 @@
         <v>59</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -6317,7 +6366,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6340,16 +6389,20 @@
         <v>48</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>38</v>
       </c>
@@ -6397,7 +6450,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6412,7 +6465,7 @@
         <v>59</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -6420,7 +6473,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6443,18 +6496,20 @@
         <v>48</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>38</v>
       </c>
@@ -6502,7 +6557,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6517,7 +6572,7 @@
         <v>59</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -6525,11 +6580,9 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>38</v>
       </c>
@@ -6550,17 +6603,19 @@
         <v>48</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>38</v>
@@ -6573,7 +6628,7 @@
         <v>38</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>38</v>
@@ -6609,13 +6664,13 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>38</v>
@@ -6624,15 +6679,15 @@
         <v>59</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6652,18 +6707,20 @@
         <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>38</v>
@@ -6676,7 +6733,7 @@
         <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>38</v>
@@ -6712,7 +6769,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6724,10 +6781,10 @@
         <v>38</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -6735,18 +6792,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>38</v>
@@ -6755,20 +6812,18 @@
         <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>38</v>
@@ -6805,34 +6860,34 @@
         <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -6840,7 +6895,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6857,26 +6912,24 @@
         <v>38</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>38</v>
       </c>
@@ -6900,13 +6953,13 @@
         <v>38</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>38</v>
@@ -6924,7 +6977,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6939,7 +6992,7 @@
         <v>59</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -6947,9 +7000,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>38</v>
       </c>
@@ -6970,19 +7025,17 @@
         <v>48</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>38</v>
@@ -7007,13 +7060,13 @@
         <v>38</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>38</v>
@@ -7031,13 +7084,13 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>38</v>
@@ -7046,15 +7099,15 @@
         <v>59</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7080,10 +7133,10 @@
         <v>49</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7134,7 +7187,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7149,7 +7202,7 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -7157,11 +7210,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7180,16 +7233,16 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7227,19 +7280,19 @@
         <v>38</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7254,7 +7307,7 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -7262,7 +7315,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7273,31 +7326,31 @@
         <v>39</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>38</v>
@@ -7322,13 +7375,13 @@
         <v>38</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>38</v>
@@ -7346,13 +7399,13 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>38</v>
@@ -7361,7 +7414,7 @@
         <v>59</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -7369,7 +7422,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7389,19 +7442,23 @@
         <v>38</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>38</v>
       </c>
@@ -7425,13 +7482,13 @@
         <v>38</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>38</v>
@@ -7449,7 +7506,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7461,10 +7518,10 @@
         <v>38</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -7472,18 +7529,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>38</v>
@@ -7495,17 +7552,15 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>38</v>
@@ -7542,34 +7597,34 @@
         <v>38</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -7577,18 +7632,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>38</v>
@@ -7597,23 +7652,21 @@
         <v>38</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>38</v>
       </c>
@@ -7649,34 +7702,34 @@
         <v>38</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -7684,7 +7737,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7695,7 +7748,7 @@
         <v>39</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>38</v>
@@ -7707,18 +7760,20 @@
         <v>48</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>38</v>
       </c>
@@ -7766,13 +7821,13 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>38</v>
@@ -7781,7 +7836,7 @@
         <v>59</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -7789,7 +7844,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7797,7 +7852,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>47</v>
@@ -7809,21 +7864,19 @@
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>38</v>
       </c>
@@ -7832,7 +7885,7 @@
         <v>38</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>38</v>
@@ -7871,7 +7924,7 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
@@ -7883,10 +7936,10 @@
         <v>38</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -7894,18 +7947,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>38</v>
@@ -7914,21 +7967,21 @@
         <v>38</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>38</v>
       </c>
@@ -7964,34 +8017,34 @@
         <v>38</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -7999,7 +8052,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8022,19 +8075,19 @@
         <v>48</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>38</v>
@@ -8083,7 +8136,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -8098,7 +8151,7 @@
         <v>59</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -8106,7 +8159,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8132,17 +8185,15 @@
         <v>49</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>38</v>
       </c>
@@ -8190,7 +8241,7 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>39</v>
@@ -8205,7 +8256,7 @@
         <v>59</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -8213,7 +8264,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8221,7 +8272,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>47</v>
@@ -8236,19 +8287,17 @@
         <v>48</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>38</v>
@@ -8258,10 +8307,10 @@
         <v>38</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>38</v>
@@ -8297,7 +8346,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
@@ -8312,7 +8361,7 @@
         <v>59</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -8320,7 +8369,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8346,15 +8395,15 @@
         <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>38</v>
       </c>
@@ -8366,7 +8415,7 @@
         <v>38</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>38</v>
@@ -8402,7 +8451,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8417,7 +8466,7 @@
         <v>59</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -8425,7 +8474,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8448,16 +8497,20 @@
         <v>48</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>38</v>
       </c>
@@ -8505,7 +8558,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
@@ -8520,7 +8573,7 @@
         <v>59</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
@@ -8528,7 +8581,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8551,18 +8604,20 @@
         <v>48</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>38</v>
       </c>
@@ -8610,7 +8665,7 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>39</v>
@@ -8625,7 +8680,7 @@
         <v>59</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -8633,7 +8688,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8656,24 +8711,24 @@
         <v>48</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N71" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P71" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>38</v>
       </c>
@@ -8681,7 +8736,7 @@
         <v>38</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>38</v>
@@ -8717,7 +8772,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -8732,15 +8787,15 @@
         <v>59</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8748,7 +8803,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>47</v>
@@ -8763,20 +8818,18 @@
         <v>48</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>38</v>
       </c>
@@ -8785,10 +8838,10 @@
         <v>38</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>38</v>
@@ -8800,13 +8853,13 @@
         <v>38</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>38</v>
@@ -8824,10 +8877,10 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>47</v>
@@ -8839,15 +8892,15 @@
         <v>59</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>248</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8855,7 +8908,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>47</v>
@@ -8870,18 +8923,16 @@
         <v>48</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>38</v>
       </c>
@@ -8890,7 +8941,7 @@
         <v>38</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>38</v>
@@ -8929,30 +8980,30 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>248</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8963,7 +9014,7 @@
         <v>39</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>38</v>
@@ -8975,16 +9026,16 @@
         <v>48</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9010,10 +9061,10 @@
         <v>38</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="Y74" t="s" s="2">
         <v>38</v>
@@ -9034,7 +9085,7 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
@@ -9049,15 +9100,15 @@
         <v>59</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>262</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9080,22 +9131,24 @@
         <v>48</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>38</v>
       </c>
@@ -9139,7 +9192,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
@@ -9154,15 +9207,15 @@
         <v>59</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9185,19 +9238,19 @@
         <v>48</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>269</v>
+        <v>67</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>38</v>
@@ -9207,7 +9260,7 @@
         <v>38</v>
       </c>
       <c r="R76" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>38</v>
@@ -9222,13 +9275,13 @@
         <v>38</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>38</v>
@@ -9246,10 +9299,10 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>47</v>
@@ -9261,15 +9314,15 @@
         <v>59</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9277,10 +9330,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>38</v>
@@ -9292,18 +9345,18 @@
         <v>48</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>38</v>
       </c>
@@ -9312,7 +9365,7 @@
         <v>38</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>38</v>
@@ -9351,30 +9404,30 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9394,23 +9447,21 @@
         <v>38</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>38</v>
       </c>
@@ -9434,10 +9485,10 @@
         <v>38</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="Y78" t="s" s="2">
         <v>38</v>
@@ -9458,13 +9509,13 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>38</v>
@@ -9473,15 +9524,15 @@
         <v>59</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>286</v>
+        <v>193</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9501,19 +9552,21 @@
         <v>38</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>38</v>
       </c>
@@ -9561,7 +9614,7 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>
@@ -9573,10 +9626,10 @@
         <v>38</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
@@ -9584,18 +9637,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>38</v>
@@ -9604,21 +9657,23 @@
         <v>38</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>119</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>38</v>
       </c>
@@ -9666,22 +9721,22 @@
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
@@ -9689,43 +9744,41 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>38</v>
       </c>
@@ -9779,16 +9832,16 @@
         <v>39</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>38</v>
@@ -9796,7 +9849,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9804,10 +9857,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>38</v>
@@ -9819,17 +9872,19 @@
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N82" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>38</v>
@@ -9854,37 +9909,37 @@
         <v>38</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AF82" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>38</v>
@@ -9893,7 +9948,7 @@
         <v>59</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
@@ -9901,7 +9956,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9909,7 +9964,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>47</v>
@@ -9924,20 +9979,16 @@
         <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>300</v>
+        <v>49</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>301</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>38</v>
       </c>
@@ -9961,10 +10012,10 @@
         <v>38</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="Y83" t="s" s="2">
         <v>38</v>
@@ -9985,10 +10036,10 @@
         <v>38</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>47</v>
@@ -9997,10 +10048,10 @@
         <v>38</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
@@ -10008,18 +10059,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>38</v>
@@ -10031,20 +10082,18 @@
         <v>38</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>308</v>
+        <v>138</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>309</v>
+        <v>139</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>38</v>
       </c>
@@ -10092,22 +10141,22 @@
         <v>38</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>307</v>
+        <v>141</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>312</v>
+        <v>136</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>38</v>
@@ -10115,39 +10164,43 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>38</v>
       </c>
@@ -10195,22 +10248,22 @@
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
@@ -10218,7 +10271,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10229,7 +10282,7 @@
         <v>47</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>38</v>
@@ -10241,17 +10294,17 @@
         <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>281</v>
+        <v>153</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>38</v>
@@ -10276,10 +10329,10 @@
         <v>38</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="Y86" t="s" s="2">
         <v>38</v>
@@ -10300,22 +10353,22 @@
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>38</v>
@@ -10323,7 +10376,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10331,7 +10384,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>47</v>
@@ -10346,16 +10399,20 @@
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>114</v>
+        <v>319</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>38</v>
       </c>
@@ -10379,10 +10436,10 @@
         <v>38</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="Y87" t="s" s="2">
         <v>38</v>
@@ -10403,10 +10460,10 @@
         <v>38</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>116</v>
+        <v>317</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>47</v>
@@ -10415,10 +10472,10 @@
         <v>38</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>38</v>
@@ -10426,18 +10483,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>38</v>
@@ -10449,18 +10506,20 @@
         <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>38</v>
       </c>
@@ -10508,22 +10567,22 @@
         <v>38</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>123</v>
+        <v>325</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>117</v>
+        <v>330</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
@@ -10531,43 +10590,39 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>38</v>
       </c>
@@ -10615,22 +10670,22 @@
         <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>38</v>
@@ -10638,7 +10693,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10649,7 +10704,7 @@
         <v>47</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>38</v>
@@ -10661,16 +10716,18 @@
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>38</v>
       </c>
@@ -10718,22 +10775,22 @@
         <v>38</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>38</v>
+        <v>338</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>38</v>
@@ -10741,7 +10798,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10752,7 +10809,7 @@
         <v>39</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>38</v>
@@ -10764,24 +10821,20 @@
         <v>38</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>213</v>
+        <v>49</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P91" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
         <v>38</v>
       </c>
@@ -10825,7 +10878,7 @@
         <v>38</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>39</v>
@@ -10837,10 +10890,10 @@
         <v>38</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>38</v>
@@ -10848,18 +10901,18 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>38</v>
@@ -10871,24 +10924,22 @@
         <v>38</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>334</v>
+        <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="P92" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
         <v>38</v>
       </c>
@@ -10932,29 +10983,453 @@
         <v>38</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI94" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AJ92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK92" t="s" s="2">
+      <c r="AJ94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Q95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Q96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK92">
+  <autoFilter ref="A1:AK96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10964,7 +11439,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -330,7 +330,7 @@
     <t>address</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-group-address}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/group-address}
 </t>
   </si>
   <si>
@@ -347,7 +347,7 @@
     <t>poverty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-group-poverty-status}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/group-poverty-status}
 </t>
   </si>
   <si>
@@ -360,7 +360,7 @@
     <t>groupType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-group-type}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/group-type}
 </t>
   </si>
   <si>
@@ -373,7 +373,7 @@
     <t>confirmation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition-group-confirmation}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/group-confirmation}
 </t>
   </si>
   <si>
@@ -614,7 +614,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet-openimis-identifiers</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/openimis-identifiers</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1299,7 +1299,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.63671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.59375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="353">
   <si>
     <t>Path</t>
   </si>
@@ -773,25 +773,16 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>FamilyUUID</t>
+    <t>Group openIMIS Code</t>
+  </si>
+  <si>
+    <t>Code of Group/Family member. By default is the Head of Family Insuree Code.</t>
+  </si>
+  <si>
+    <t>UUID</t>
   </si>
   <si>
     <t>Group openIMIS UUID</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>FamilyID</t>
-  </si>
-  <si>
-    <t>Group openIMIS Database ID</t>
-  </si>
-  <si>
-    <t>Group/Family Database ID generated by openIMIS.</t>
-  </si>
-  <si>
-    <t>DBID</t>
   </si>
   <si>
     <t>Group.active</t>
@@ -2798,7 +2789,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>40</v>
@@ -4890,25 +4881,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>123</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -6182,10 +6173,10 @@
         <v>67</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
@@ -6199,7 +6190,7 @@
         <v>38</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>38</v>
@@ -7003,7 +6994,7 @@
         <v>123</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>38</v>
@@ -8290,10 +8281,10 @@
         <v>67</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
@@ -8307,7 +8298,7 @@
         <v>38</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>38</v>
@@ -9108,7 +9099,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9134,20 +9125,20 @@
         <v>201</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>38</v>
@@ -9192,7 +9183,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
@@ -9207,15 +9198,15 @@
         <v>59</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9241,16 +9232,16 @@
         <v>67</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N76" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>38</v>
@@ -9260,7 +9251,7 @@
         <v>38</v>
       </c>
       <c r="R76" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>38</v>
@@ -9278,10 +9269,10 @@
         <v>147</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>38</v>
@@ -9299,7 +9290,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>47</v>
@@ -9314,15 +9305,15 @@
         <v>59</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9348,14 +9339,14 @@
         <v>201</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>38</v>
@@ -9365,7 +9356,7 @@
         <v>38</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>38</v>
@@ -9404,7 +9395,7 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>47</v>
@@ -9413,21 +9404,21 @@
         <v>47</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9453,13 +9444,13 @@
         <v>153</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -9485,10 +9476,10 @@
         <v>38</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Y78" t="s" s="2">
         <v>38</v>
@@ -9509,7 +9500,7 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
@@ -9527,12 +9518,12 @@
         <v>193</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9558,14 +9549,14 @@
         <v>49</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>38</v>
@@ -9614,7 +9605,7 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>
@@ -9629,7 +9620,7 @@
         <v>59</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
@@ -9637,7 +9628,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9660,19 +9651,19 @@
         <v>48</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>38</v>
@@ -9721,7 +9712,7 @@
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
@@ -9736,7 +9727,7 @@
         <v>59</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
@@ -9744,7 +9735,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9767,16 +9758,16 @@
         <v>48</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -9826,7 +9817,7 @@
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>39</v>
@@ -9849,7 +9840,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9872,19 +9863,19 @@
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>38</v>
@@ -9933,7 +9924,7 @@
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>39</v>
@@ -9948,7 +9939,7 @@
         <v>59</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
@@ -9956,7 +9947,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10059,7 +10050,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10164,11 +10155,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -10190,10 +10181,10 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>120</v>
@@ -10248,7 +10239,7 @@
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>39</v>
@@ -10271,7 +10262,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10297,14 +10288,14 @@
         <v>153</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>38</v>
@@ -10329,10 +10320,10 @@
         <v>38</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Y86" t="s" s="2">
         <v>38</v>
@@ -10353,7 +10344,7 @@
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>47</v>
@@ -10376,7 +10367,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10399,19 +10390,19 @@
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>38</v>
@@ -10436,10 +10427,10 @@
         <v>38</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Y87" t="s" s="2">
         <v>38</v>
@@ -10460,7 +10451,7 @@
         <v>38</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>47</v>
@@ -10475,7 +10466,7 @@
         <v>59</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>38</v>
@@ -10483,7 +10474,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10509,16 +10500,16 @@
         <v>201</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>38</v>
@@ -10567,7 +10558,7 @@
         <v>38</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>47</v>
@@ -10582,7 +10573,7 @@
         <v>59</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
@@ -10590,7 +10581,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10616,10 +10607,10 @@
         <v>231</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -10670,7 +10661,7 @@
         <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>39</v>
@@ -10693,7 +10684,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10716,17 +10707,17 @@
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>38</v>
@@ -10775,7 +10766,7 @@
         <v>38</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>39</v>
@@ -10784,13 +10775,13 @@
         <v>40</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>38</v>
@@ -10798,7 +10789,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10901,7 +10892,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11006,11 +10997,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -11032,10 +11023,10 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>120</v>
@@ -11090,7 +11081,7 @@
         <v>38</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>39</v>
@@ -11113,7 +11104,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11136,13 +11127,13 @@
         <v>38</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11193,7 +11184,7 @@
         <v>38</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>47</v>
@@ -11216,7 +11207,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11242,20 +11233,20 @@
         <v>231</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P95" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q95" t="s" s="2">
         <v>38</v>
@@ -11300,7 +11291,7 @@
         <v>38</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>39</v>
@@ -11323,7 +11314,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11349,20 +11340,20 @@
         <v>201</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>38</v>
       </c>
       <c r="P96" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q96" t="s" s="2">
         <v>38</v>
@@ -11407,7 +11398,7 @@
         <v>38</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-group.xlsx
+++ b/StructureDefinition-openimis-group.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
